--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H2">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N2">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O2">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P2">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q2">
-        <v>13.68697513507</v>
+        <v>0.1280750407908889</v>
       </c>
       <c r="R2">
-        <v>123.18277621563</v>
+        <v>1.152675367118</v>
       </c>
       <c r="S2">
-        <v>0.007555168929597659</v>
+        <v>0.0001018333030393345</v>
       </c>
       <c r="T2">
-        <v>0.007555168929597659</v>
+        <v>0.0001018333030393345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H3">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.249148</v>
       </c>
       <c r="O3">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P3">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q3">
-        <v>11.707567006552</v>
+        <v>0.06388924507288889</v>
       </c>
       <c r="R3">
-        <v>105.368103058968</v>
+        <v>0.5750032056559999</v>
       </c>
       <c r="S3">
-        <v>0.006462541621957286</v>
+        <v>5.07987568404088E-05</v>
       </c>
       <c r="T3">
-        <v>0.006462541621957287</v>
+        <v>5.07987568404088E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H4">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N4">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O4">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P4">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q4">
-        <v>307.328750465808</v>
+        <v>1.445471864197778</v>
       </c>
       <c r="R4">
-        <v>2765.958754192272</v>
+        <v>13.00924677778</v>
       </c>
       <c r="S4">
-        <v>0.1696445418931105</v>
+        <v>0.001149304138204542</v>
       </c>
       <c r="T4">
-        <v>0.1696445418931105</v>
+        <v>0.001149304138204542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H5">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N5">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O5">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P5">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q5">
-        <v>44.51405520392999</v>
+        <v>0.05731642999622222</v>
       </c>
       <c r="R5">
-        <v>400.62649683537</v>
+        <v>0.515847869966</v>
       </c>
       <c r="S5">
-        <v>0.0245716240066368</v>
+        <v>4.557266856129955E-05</v>
       </c>
       <c r="T5">
-        <v>0.0245716240066368</v>
+        <v>4.557266856129955E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N6">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O6">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P6">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q6">
-        <v>18.68786463692222</v>
+        <v>32.04465497548222</v>
       </c>
       <c r="R6">
-        <v>168.1907817323</v>
+        <v>288.40189477934</v>
       </c>
       <c r="S6">
-        <v>0.01031564482817185</v>
+        <v>0.02547891486708268</v>
       </c>
       <c r="T6">
-        <v>0.01031564482817185</v>
+        <v>0.02547891486708267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.85786</v>
       </c>
       <c r="I7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.249148</v>
       </c>
       <c r="O7">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P7">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q7">
         <v>15.98522867814222</v>
@@ -883,10 +883,10 @@
         <v>143.86705810328</v>
       </c>
       <c r="S7">
-        <v>0.008823797942918956</v>
+        <v>0.01270995992725945</v>
       </c>
       <c r="T7">
-        <v>0.008823797942918958</v>
+        <v>0.01270995992725945</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.85786</v>
       </c>
       <c r="I8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N8">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O8">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P8">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q8">
-        <v>419.6192388063467</v>
+        <v>361.6602179390445</v>
       </c>
       <c r="R8">
-        <v>3776.57314925712</v>
+        <v>3254.9419614514</v>
       </c>
       <c r="S8">
-        <v>0.2316285522553422</v>
+        <v>0.287558405941015</v>
       </c>
       <c r="T8">
-        <v>0.2316285522553422</v>
+        <v>0.287558405941015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>33.85786</v>
       </c>
       <c r="I9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N9">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O9">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P9">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q9">
-        <v>60.7784137753</v>
+        <v>14.34069598817555</v>
       </c>
       <c r="R9">
-        <v>547.0057239777</v>
+        <v>129.06626389358</v>
       </c>
       <c r="S9">
-        <v>0.03354950080743523</v>
+        <v>0.01140238122385778</v>
       </c>
       <c r="T9">
-        <v>0.03354950080743523</v>
+        <v>0.01140238122385778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H10">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N10">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O10">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P10">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q10">
-        <v>1.039213609901111</v>
+        <v>2.518138420428444</v>
       </c>
       <c r="R10">
-        <v>9.35292248911</v>
+        <v>22.663245783856</v>
       </c>
       <c r="S10">
-        <v>0.0005736427734585593</v>
+        <v>0.002002188336454725</v>
       </c>
       <c r="T10">
-        <v>0.0005736427734585593</v>
+        <v>0.002002188336454725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H11">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.249148</v>
       </c>
       <c r="O11">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P11">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q11">
-        <v>0.8889227058551109</v>
+        <v>1.256153905372445</v>
       </c>
       <c r="R11">
-        <v>8.000304352695998</v>
+        <v>11.305385148352</v>
       </c>
       <c r="S11">
-        <v>0.0004906826484167544</v>
+        <v>0.0009987761902702874</v>
       </c>
       <c r="T11">
-        <v>0.0004906826484167544</v>
+        <v>0.0009987761902702874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H12">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N12">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O12">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P12">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q12">
-        <v>23.33460951350933</v>
+        <v>28.42004354952889</v>
       </c>
       <c r="R12">
-        <v>210.011485621584</v>
+        <v>255.78039194576</v>
       </c>
       <c r="S12">
-        <v>0.01288063396338288</v>
+        <v>0.02259696260331891</v>
       </c>
       <c r="T12">
-        <v>0.01288063396338288</v>
+        <v>0.02259696260331891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H13">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N13">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O13">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P13">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q13">
-        <v>3.379827284209999</v>
+        <v>1.126922963319111</v>
       </c>
       <c r="R13">
-        <v>30.41844555789</v>
+        <v>10.142306669872</v>
       </c>
       <c r="S13">
-        <v>0.001865654451263035</v>
+        <v>0.0008960238225731151</v>
       </c>
       <c r="T13">
-        <v>0.001865654451263035</v>
+        <v>0.0008960238225731151</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H14">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N14">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O14">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P14">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q14">
-        <v>32.31480576591611</v>
+        <v>60.35491861604854</v>
       </c>
       <c r="R14">
-        <v>290.833251893245</v>
+        <v>543.1942675444369</v>
       </c>
       <c r="S14">
-        <v>0.01783767516776336</v>
+        <v>0.04798859074639993</v>
       </c>
       <c r="T14">
-        <v>0.01783767516776336</v>
+        <v>0.04798859074639991</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H15">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.249148</v>
       </c>
       <c r="O15">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P15">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q15">
-        <v>27.64144378685911</v>
+        <v>30.10758507671155</v>
       </c>
       <c r="R15">
-        <v>248.772994081732</v>
+        <v>270.968265690404</v>
       </c>
       <c r="S15">
-        <v>0.01525799347239262</v>
+        <v>0.02393873791463529</v>
       </c>
       <c r="T15">
-        <v>0.01525799347239262</v>
+        <v>0.02393873791463529</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H16">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N16">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O16">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P16">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q16">
-        <v>725.5999795117253</v>
+        <v>681.1736009351412</v>
       </c>
       <c r="R16">
-        <v>6530.399815605528</v>
+        <v>6130.56240841627</v>
       </c>
       <c r="S16">
-        <v>0.4005289968326992</v>
+        <v>0.5416055876154566</v>
       </c>
       <c r="T16">
-        <v>0.4005289968326992</v>
+        <v>0.5416055876154564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H17">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N17">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O17">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P17">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q17">
-        <v>105.097220793695</v>
+        <v>27.01016877622989</v>
       </c>
       <c r="R17">
-        <v>945.874987143255</v>
+        <v>243.091518986069</v>
       </c>
       <c r="S17">
-        <v>0.0580133484054531</v>
+        <v>0.02147596194503074</v>
       </c>
       <c r="T17">
-        <v>0.05801334840545311</v>
+        <v>0.02147596194503073</v>
       </c>
     </row>
   </sheetData>
